--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -835,7 +835,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference)
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -516,7 +516,108 @@
 </t>
   </si>
   <si>
-    <t>Folder.codeList</t>
+    <t>designationType/ddccDesignation</t>
+  </si>
+  <si>
+    <t>List.extension.id</t>
+  </si>
+  <si>
+    <t>List.extension.extension</t>
+  </si>
+  <si>
+    <t>List.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>List.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>List.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>List.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>List.extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://worldhealthorganization.github.io/ddcc/CodeSystem/DDCC-Folder-DesignationType"/&gt;
+  &lt;code value="ddcc"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>List.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -597,10 +698,6 @@
   </si>
   <si>
     <t>List.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -1365,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1374,8 +1471,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.18359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3154,7 +3251,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -3260,7 +3357,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -3353,29 +3450,31 @@
         <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>42</v>
@@ -3438,7 +3537,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3464,7 +3563,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3472,10 +3571,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3487,13 +3586,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3532,56 +3631,56 @@
         <v>42</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3593,15 +3692,17 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3638,19 +3739,19 @@
         <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3662,13 +3763,13 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3676,7 +3777,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3684,7 +3785,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
@@ -3699,15 +3800,17 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3756,10 +3859,10 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>49</v>
@@ -3771,7 +3874,7 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -3782,18 +3885,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3805,17 +3908,15 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3852,34 +3953,32 @@
         <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>42</v>
@@ -3890,9 +3989,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3907,26 +4008,22 @@
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3935,7 +4032,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>42</v>
@@ -3950,13 +4047,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3974,7 +4071,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3989,7 +4086,7 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -4000,7 +4097,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4020,23 +4117,19 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4060,13 +4153,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4084,7 +4177,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4096,10 +4189,10 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4110,18 +4203,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4130,23 +4223,21 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4158,7 +4249,7 @@
         <v>42</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>42</v>
@@ -4182,34 +4273,34 @@
         <v>42</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -4220,7 +4311,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4228,7 +4319,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
@@ -4243,18 +4334,20 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4263,10 +4356,10 @@
         <v>42</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>42</v>
@@ -4302,13 +4395,13 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
@@ -4317,7 +4410,7 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4328,7 +4421,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4351,16 +4444,20 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4408,7 +4505,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4423,7 +4520,7 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4434,7 +4531,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4445,29 +4542,27 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4516,22 +4611,22 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4542,20 +4637,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4567,13 +4660,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4612,19 +4705,17 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4639,26 +4730,28 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>49</v>
@@ -4673,13 +4766,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4730,25 +4823,25 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4756,18 +4849,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4779,17 +4872,15 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4826,31 +4917,31 @@
         <v>42</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>66</v>
@@ -4864,43 +4955,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4909,7 +4998,7 @@
         <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>42</v>
@@ -4924,46 +5013,46 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
@@ -4974,7 +5063,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4982,7 +5071,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
@@ -4991,25 +5080,25 @@
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5019,7 +5108,7 @@
         <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>42</v>
@@ -5034,13 +5123,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5058,7 +5147,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5073,7 +5162,7 @@
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
@@ -5084,7 +5173,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5107,19 +5196,19 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5132,7 +5221,7 @@
         <v>42</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>42</v>
@@ -5144,13 +5233,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5168,7 +5257,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5183,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5194,7 +5283,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5217,18 +5306,20 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5240,7 +5331,7 @@
         <v>42</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>42</v>
@@ -5276,7 +5367,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5291,7 +5382,7 @@
         <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
@@ -5302,7 +5393,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5325,15 +5416,17 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5346,7 +5439,7 @@
         <v>42</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>42</v>
@@ -5382,7 +5475,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5397,7 +5490,7 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
@@ -5408,7 +5501,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5431,17 +5524,15 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5490,7 +5581,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5505,7 +5596,7 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
@@ -5516,7 +5607,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5524,7 +5615,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>49</v>
@@ -5533,22 +5624,22 @@
         <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5574,13 +5665,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5598,10 +5689,10 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -5613,20 +5704,22 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5641,26 +5734,22 @@
         <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5669,7 +5758,7 @@
         <v>42</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>42</v>
@@ -5684,13 +5773,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5708,13 +5797,13 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
@@ -5723,18 +5812,18 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5754,21 +5843,19 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5780,7 +5867,7 @@
         <v>42</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>42</v>
@@ -5816,7 +5903,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5828,32 +5915,32 @@
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5862,23 +5949,21 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5887,7 +5972,7 @@
         <v>42</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>42</v>
@@ -5902,55 +5987,57 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5964,28 +6051,28 @@
         <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5995,7 +6082,7 @@
         <v>42</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>42</v>
@@ -6010,13 +6097,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6034,7 +6121,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6049,18 +6136,18 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6080,19 +6167,23 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6116,13 +6207,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6140,7 +6231,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6152,10 +6243,10 @@
         <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
@@ -6166,18 +6257,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6186,21 +6277,23 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6212,7 +6305,7 @@
         <v>42</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>42</v>
@@ -6236,34 +6329,34 @@
         <v>42</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
@@ -6272,9 +6365,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6282,13 +6375,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
@@ -6300,13 +6393,13 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6320,7 +6413,7 @@
         <v>42</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>42</v>
@@ -6356,7 +6449,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6365,13 +6458,13 @@
         <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>42</v>
@@ -6382,7 +6475,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6405,17 +6498,15 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6440,13 +6531,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6464,7 +6555,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6479,7 +6570,7 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
@@ -6490,7 +6581,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6513,16 +6604,16 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6572,7 +6663,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6587,7 +6678,7 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
@@ -6598,7 +6689,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6606,7 +6697,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>49</v>
@@ -6615,22 +6706,22 @@
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6656,13 +6747,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6680,10 +6771,10 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>49</v>
@@ -6695,18 +6786,18 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6714,31 +6805,35 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6747,7 +6842,7 @@
         <v>42</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>42</v>
@@ -6762,13 +6857,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6786,10 +6881,10 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>49</v>
@@ -6801,18 +6896,18 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>66</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6835,19 +6930,17 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6860,7 +6953,7 @@
         <v>42</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>42</v>
@@ -6896,7 +6989,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6911,29 +7004,29 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6945,19 +7038,19 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6967,7 +7060,7 @@
         <v>42</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>42</v>
@@ -6982,13 +7075,11 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -7006,7 +7097,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7021,18 +7112,18 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>66</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7040,34 +7131,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7092,13 +7183,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7116,7 +7207,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7131,18 +7222,18 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>66</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7165,13 +7256,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7222,37 +7313,37 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7271,16 +7362,16 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>335</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7318,19 +7409,19 @@
         <v>42</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7339,13 +7430,13 @@
         <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
@@ -7354,9 +7445,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7364,30 +7455,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7436,7 +7529,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7445,13 +7538,13 @@
         <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
@@ -7462,18 +7555,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7482,19 +7575,19 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7520,13 +7613,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7544,22 +7637,22 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
@@ -7570,43 +7663,41 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7654,22 +7745,22 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>149</v>
+        <v>321</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
@@ -7680,7 +7771,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7691,7 +7782,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7700,23 +7791,21 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7740,13 +7829,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7764,7 +7853,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7779,18 +7868,18 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7807,32 +7896,26 @@
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7876,7 +7959,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7885,16 +7968,16 @@
         <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>66</v>
@@ -7902,7 +7985,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7913,7 +7996,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7922,20 +8005,22 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7984,7 +8069,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7999,29 +8084,29 @@
         <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>66</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8030,19 +8115,23 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8090,10 +8179,10 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>49</v>
@@ -8105,18 +8194,18 @@
         <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>375</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8139,19 +8228,19 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8179,10 +8268,10 @@
         <v>130</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8200,7 +8289,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8209,13 +8298,13 @@
         <v>49</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
@@ -8224,8 +8313,1092 @@
         <v>66</v>
       </c>
     </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL63">
+  <autoFilter ref="A1:AL73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8235,7 +9408,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCFolder.xlsx
+++ b/StructureDefinition-DDCCFolder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
